--- a/biology/Médecine/Carcinome_embryonnaire/Carcinome_embryonnaire.xlsx
+++ b/biology/Médecine/Carcinome_embryonnaire/Carcinome_embryonnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le carcinome embryonnaire est un type de tumeur germinale peu commun qui se produit dans les ovaires et les testicules[1]. On peut aussi la retrouver sous le nom de tumeur vitelline ou tumeur du sinus endodermique du testicule et de l'ovaire[2]. 
+Le carcinome embryonnaire est un type de tumeur germinale peu commun qui se produit dans les ovaires et les testicules. On peut aussi la retrouver sous le nom de tumeur vitelline ou tumeur du sinus endodermique du testicule et de l'ovaire. 
 </t>
         </is>
       </c>
